--- a/doc/JP80.xlsx
+++ b/doc/JP80.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\jprimeau\projects\de1sap2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin64\home\Jonathan\projects\DE1-JP80\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14615,7 +14615,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15320,7 +15320,7 @@
       <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -15371,7 +15371,7 @@
       <c r="D15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -15420,7 +15420,7 @@
       <c r="D16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="5" t="s">
         <v>259</v>
       </c>
       <c r="F16" s="13" t="s">
@@ -15471,7 +15471,7 @@
       <c r="D17" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F17" s="13" t="s">
